--- a/MasterData/2. AmortTemplateSYFY.xlsx
+++ b/MasterData/2. AmortTemplateSYFY.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\mohammed.saquib\AmortTemplateAutomation\MasterData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\mohammed.saquib\eclipse-workspace\amorttemplate\MasterData\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3897" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3890" uniqueCount="66">
   <si>
     <t>Acquired Movies</t>
   </si>
@@ -223,9 +223,6 @@
   </si>
   <si>
     <t>Window dates need to be more than or equal to 24 months</t>
-  </si>
-  <si>
-    <t>Pilot 80-20 issue</t>
   </si>
   <si>
     <t>A</t>
@@ -12356,9 +12353,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O176"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J1" sqref="J1"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -12411,7 +12406,7 @@
         <v>53</v>
       </c>
       <c r="K1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="L1" t="s">
         <v>54</v>
@@ -13856,7 +13851,7 @@
         <v>36</v>
       </c>
       <c r="K33" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="L33" t="s">
         <v>36</v>
@@ -13901,7 +13896,7 @@
         <v>36</v>
       </c>
       <c r="K34" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="L34" t="s">
         <v>36</v>
@@ -13946,7 +13941,7 @@
         <v>36</v>
       </c>
       <c r="K35" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="L35" t="s">
         <v>36</v>
@@ -13991,7 +13986,7 @@
         <v>36</v>
       </c>
       <c r="K36" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="L36" t="s">
         <v>36</v>
@@ -14036,7 +14031,7 @@
         <v>36</v>
       </c>
       <c r="K37" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="L37" t="s">
         <v>36</v>
@@ -14081,7 +14076,7 @@
         <v>36</v>
       </c>
       <c r="K38" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="L38" t="s">
         <v>36</v>
@@ -14126,7 +14121,7 @@
         <v>36</v>
       </c>
       <c r="K39" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="L39" t="s">
         <v>36</v>
@@ -14171,7 +14166,7 @@
         <v>36</v>
       </c>
       <c r="K40" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="L40" t="s">
         <v>36</v>
@@ -16360,7 +16355,7 @@
         <v>38</v>
       </c>
       <c r="K88" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="L88" t="s">
         <v>36</v>
@@ -16405,7 +16400,7 @@
         <v>38</v>
       </c>
       <c r="K89" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="L89" t="s">
         <v>36</v>
@@ -16450,7 +16445,7 @@
         <v>38</v>
       </c>
       <c r="K90" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="L90" t="s">
         <v>36</v>
@@ -16495,7 +16490,7 @@
         <v>38</v>
       </c>
       <c r="K91" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="L91" t="s">
         <v>36</v>
@@ -17122,7 +17117,7 @@
         <v>0</v>
       </c>
       <c r="I105">
-        <v>43.332999999999998</v>
+        <v>43.33</v>
       </c>
       <c r="J105" t="s">
         <v>36</v>
@@ -17138,10 +17133,7 @@
         <v>80Pilot 80-20DocumentaryOriginal Movies</v>
       </c>
       <c r="N105" t="s">
-        <v>61</v>
-      </c>
-      <c r="O105" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
     </row>
     <row r="106" spans="1:15" x14ac:dyDescent="0.25">
@@ -17170,7 +17162,7 @@
         <v>0</v>
       </c>
       <c r="I106">
-        <v>43.332999999999998</v>
+        <v>43.33</v>
       </c>
       <c r="J106" t="s">
         <v>36</v>
@@ -17186,10 +17178,7 @@
         <v>80Pilot 80-20MoviesOriginal Movies</v>
       </c>
       <c r="N106" t="s">
-        <v>61</v>
-      </c>
-      <c r="O106" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
     </row>
     <row r="107" spans="1:15" x14ac:dyDescent="0.25">
@@ -17218,7 +17207,7 @@
         <v>0</v>
       </c>
       <c r="I107">
-        <v>43.332999999999998</v>
+        <v>43.33</v>
       </c>
       <c r="J107" t="s">
         <v>36</v>
@@ -17234,10 +17223,7 @@
         <v>80Pilot 80-20OriginalOriginal Movies</v>
       </c>
       <c r="N107" t="s">
-        <v>61</v>
-      </c>
-      <c r="O107" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
     </row>
     <row r="108" spans="1:15" x14ac:dyDescent="0.25">
@@ -17266,7 +17252,7 @@
         <v>0</v>
       </c>
       <c r="I108">
-        <v>43.332999999999998</v>
+        <v>43.33</v>
       </c>
       <c r="J108" t="s">
         <v>36</v>
@@ -17282,10 +17268,7 @@
         <v>80Pilot 80-20Original MiniSeriesOriginal Movies</v>
       </c>
       <c r="N108" t="s">
-        <v>61</v>
-      </c>
-      <c r="O108" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
     </row>
     <row r="109" spans="1:15" x14ac:dyDescent="0.25">
@@ -17314,7 +17297,7 @@
         <v>0</v>
       </c>
       <c r="I109">
-        <v>43.332999999999998</v>
+        <v>43.33</v>
       </c>
       <c r="J109" t="s">
         <v>36</v>
@@ -17330,10 +17313,7 @@
         <v>80Pilot 80-20Original SeriesOriginal Movies</v>
       </c>
       <c r="N109" t="s">
-        <v>61</v>
-      </c>
-      <c r="O109" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
     </row>
     <row r="110" spans="1:15" x14ac:dyDescent="0.25">
@@ -17362,7 +17342,7 @@
         <v>0</v>
       </c>
       <c r="I110">
-        <v>43.332999999999998</v>
+        <v>43.33</v>
       </c>
       <c r="J110" t="s">
         <v>36</v>
@@ -17378,10 +17358,7 @@
         <v>80Pilot 80-20PilotOriginal Movies</v>
       </c>
       <c r="N110" t="s">
-        <v>61</v>
-      </c>
-      <c r="O110" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
     </row>
     <row r="111" spans="1:15" x14ac:dyDescent="0.25">
@@ -17410,7 +17387,7 @@
         <v>0</v>
       </c>
       <c r="I111">
-        <v>43.332999999999998</v>
+        <v>43.33</v>
       </c>
       <c r="J111" t="s">
         <v>36</v>
@@ -17426,10 +17403,7 @@
         <v>80Pilot 80-20SeriesOriginal Movies</v>
       </c>
       <c r="N111" t="s">
-        <v>61</v>
-      </c>
-      <c r="O111" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
     </row>
     <row r="112" spans="1:15" x14ac:dyDescent="0.25">
@@ -18682,7 +18656,7 @@
         <v>36</v>
       </c>
       <c r="K138" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="L138" t="s">
         <v>36</v>
@@ -18730,7 +18704,7 @@
         <v>36</v>
       </c>
       <c r="K139" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="L139" t="s">
         <v>36</v>
@@ -18778,7 +18752,7 @@
         <v>36</v>
       </c>
       <c r="K140" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="L140" t="s">
         <v>36</v>
@@ -18826,7 +18800,7 @@
         <v>36</v>
       </c>
       <c r="K141" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="L141" t="s">
         <v>36</v>
@@ -18874,7 +18848,7 @@
         <v>36</v>
       </c>
       <c r="K142" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="L142" t="s">
         <v>36</v>
@@ -18922,7 +18896,7 @@
         <v>36</v>
       </c>
       <c r="K143" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="L143" t="s">
         <v>36</v>
@@ -18970,7 +18944,7 @@
         <v>36</v>
       </c>
       <c r="K144" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="L144" t="s">
         <v>36</v>
@@ -19018,7 +18992,7 @@
         <v>36</v>
       </c>
       <c r="K145" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="L145" t="s">
         <v>36</v>
@@ -19066,7 +19040,7 @@
         <v>36</v>
       </c>
       <c r="K146" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="L146" t="s">
         <v>36</v>
@@ -19114,7 +19088,7 @@
         <v>36</v>
       </c>
       <c r="K147" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="L147" t="s">
         <v>36</v>
@@ -19162,7 +19136,7 @@
         <v>36</v>
       </c>
       <c r="K148" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="L148" t="s">
         <v>36</v>
@@ -20133,7 +20107,7 @@
         <v>36</v>
       </c>
       <c r="K169" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="L169" t="s">
         <v>36</v>
@@ -20226,7 +20200,7 @@
         <v>36</v>
       </c>
       <c r="K171" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="L171" t="s">
         <v>36</v>
@@ -20271,7 +20245,7 @@
         <v>36</v>
       </c>
       <c r="K172" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="L172" t="s">
         <v>36</v>
@@ -20316,7 +20290,7 @@
         <v>36</v>
       </c>
       <c r="K173" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="L173" t="s">
         <v>36</v>
@@ -20361,7 +20335,7 @@
         <v>36</v>
       </c>
       <c r="K174" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="L174" t="s">
         <v>36</v>
@@ -20406,7 +20380,7 @@
         <v>36</v>
       </c>
       <c r="K175" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="L175" t="s">
         <v>36</v>
@@ -20451,7 +20425,7 @@
         <v>36</v>
       </c>
       <c r="K176" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="L176" t="s">
         <v>36</v>

--- a/MasterData/2. AmortTemplateSYFY.xlsx
+++ b/MasterData/2. AmortTemplateSYFY.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\mohammed.saquib\eclipse-workspace\amorttemplate\MasterData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\206534643\git\AmortTemplateAutomation\MasterData\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -12353,7 +12353,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O176"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>

--- a/MasterData/2. AmortTemplateSYFY.xlsx
+++ b/MasterData/2. AmortTemplateSYFY.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\206534643\git\AmortTemplateAutomation\MasterData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\mohammed.saquib\eclipse-workspace\amorttemplate\MasterData\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3890" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3891" uniqueCount="67">
   <si>
     <t>Acquired Movies</t>
   </si>
@@ -230,6 +230,9 @@
   <si>
     <t>ProjSchedFlag</t>
   </si>
+  <si>
+    <t>UniqueKey</t>
+  </si>
 </sst>
 </file>
 
@@ -244,18 +247,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -285,12 +282,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -12353,7 +12349,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O176"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A88" sqref="A88:A89"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -12411,6 +12409,9 @@
       <c r="L1" t="s">
         <v>54</v>
       </c>
+      <c r="M1" t="s">
+        <v>66</v>
+      </c>
       <c r="N1" t="s">
         <v>55</v>
       </c>
@@ -16369,7 +16370,7 @@
       </c>
     </row>
     <row r="89" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A89" s="2">
+      <c r="A89">
         <v>54</v>
       </c>
       <c r="B89" t="s">

--- a/MasterData/2. AmortTemplateSYFY.xlsx
+++ b/MasterData/2. AmortTemplateSYFY.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3891" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3907" uniqueCount="69">
   <si>
     <t>Acquired Movies</t>
   </si>
@@ -232,6 +232,12 @@
   </si>
   <si>
     <t>UniqueKey</t>
+  </si>
+  <si>
+    <t>Failed</t>
+  </si>
+  <si>
+    <t>Passed</t>
   </si>
 </sst>
 </file>
@@ -12349,9 +12355,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O176"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A88" sqref="A88:A89"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -12461,7 +12465,7 @@
         <v>6Acquired MoviesAcquired MiniSeriesAcquired Movies</v>
       </c>
       <c r="N2" t="s">
-        <v>59</v>
+        <v>68</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
@@ -12506,7 +12510,7 @@
         <v>6Acquired MoviesDocumentaryAcquired Movies</v>
       </c>
       <c r="N3" t="s">
-        <v>59</v>
+        <v>68</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
@@ -12551,7 +12555,7 @@
         <v>6Acquired MoviesMoviesAcquired Movies</v>
       </c>
       <c r="N4" t="s">
-        <v>59</v>
+        <v>68</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
@@ -12596,7 +12600,7 @@
         <v>6Acquired MoviesOriginalAcquired Movies</v>
       </c>
       <c r="N5" t="s">
-        <v>59</v>
+        <v>68</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
@@ -12641,7 +12645,7 @@
         <v>6Acquired MoviesOriginal MiniSeriesAcquired Movies</v>
       </c>
       <c r="N6" t="s">
-        <v>59</v>
+        <v>68</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
@@ -12686,7 +12690,7 @@
         <v>6Acquired MoviesSeriesAcquired Movies</v>
       </c>
       <c r="N7" t="s">
-        <v>59</v>
+        <v>68</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
@@ -12731,7 +12735,7 @@
         <v>6Acquired MoviesSpecialAcquired Movies</v>
       </c>
       <c r="N8" t="s">
-        <v>59</v>
+        <v>68</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
@@ -12776,7 +12780,7 @@
         <v>7Acquired SeriesAcquired SpecialsAcquired Series</v>
       </c>
       <c r="N9" t="s">
-        <v>59</v>
+        <v>68</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
@@ -12821,7 +12825,7 @@
         <v>7Acquired SeriesBio/Clip (E)Acquired Series</v>
       </c>
       <c r="N10" t="s">
-        <v>59</v>
+        <v>68</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
@@ -12866,7 +12870,7 @@
         <v>7Acquired SeriesConcertAcquired Series</v>
       </c>
       <c r="N11" t="s">
-        <v>59</v>
+        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
@@ -12911,7 +12915,7 @@
         <v>7Acquired SeriesDocumentaryAcquired Series</v>
       </c>
       <c r="N12" t="s">
-        <v>59</v>
+        <v>68</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
@@ -12956,7 +12960,7 @@
         <v>7Acquired SeriesEpisodeAcquired Series</v>
       </c>
       <c r="N13" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="O13" s="1" t="s">
         <v>58</v>
@@ -13004,7 +13008,7 @@
         <v>7Acquired SeriesEventsAcquired Series</v>
       </c>
       <c r="N14" t="s">
-        <v>59</v>
+        <v>68</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
@@ -13049,7 +13053,7 @@
         <v>7Acquired SeriesMoviesAcquired Series</v>
       </c>
       <c r="N15" t="s">
-        <v>59</v>
+        <v>68</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
@@ -13094,7 +13098,7 @@
         <v>7Acquired SeriesOriginal SeriesAcquired Series</v>
       </c>
       <c r="N16" t="s">
-        <v>59</v>
+        <v>68</v>
       </c>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.25">
@@ -13139,7 +13143,7 @@
         <v>7Acquired SeriesSeriesAcquired Series</v>
       </c>
       <c r="N17" t="s">
-        <v>59</v>
+        <v>68</v>
       </c>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.25">
@@ -13184,7 +13188,7 @@
         <v>7Acquired SeriesSpecialAcquired Series</v>
       </c>
       <c r="N18" t="s">
-        <v>59</v>
+        <v>68</v>
       </c>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.25">
@@ -13229,7 +13233,7 @@
         <v>7Acquired SeriesSportsAcquired Series</v>
       </c>
       <c r="N19" t="s">
-        <v>59</v>
+        <v>68</v>
       </c>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.25">
@@ -13274,7 +13278,7 @@
         <v>8Acquired MiniSeriesAcquired MiniSeriesAcquired MiniSeries</v>
       </c>
       <c r="N20" t="s">
-        <v>59</v>
+        <v>68</v>
       </c>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.25">
@@ -13319,7 +13323,7 @@
         <v>8Acquired MiniSeriesMoviesAcquired MiniSeries</v>
       </c>
       <c r="N21" t="s">
-        <v>59</v>
+        <v>68</v>
       </c>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.25">
@@ -13364,7 +13368,7 @@
         <v>8Acquired MiniSeriesOriginal MiniSeriesAcquired MiniSeries</v>
       </c>
       <c r="N22" t="s">
-        <v>59</v>
+        <v>68</v>
       </c>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.25">
@@ -13409,7 +13413,7 @@
         <v>9Acquired Originals (old)MoviesAcquired Originals</v>
       </c>
       <c r="N23" t="s">
-        <v>59</v>
+        <v>68</v>
       </c>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.25">
@@ -13454,7 +13458,7 @@
         <v>9Acquired Originals (old)OriginalAcquired Originals</v>
       </c>
       <c r="N24" t="s">
-        <v>59</v>
+        <v>68</v>
       </c>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.25">
@@ -13499,7 +13503,7 @@
         <v>9Acquired Originals (old)Original MiniSeriesAcquired Originals</v>
       </c>
       <c r="N25" t="s">
-        <v>59</v>
+        <v>68</v>
       </c>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.25">
@@ -13544,7 +13548,7 @@
         <v>9Acquired Originals (old)SeriesAcquired Originals</v>
       </c>
       <c r="N26" t="s">
-        <v>59</v>
+        <v>68</v>
       </c>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.25">
@@ -13589,7 +13593,7 @@
         <v>10Original Alternative Programming(Expired)SpecialOriginal Alternative Programming</v>
       </c>
       <c r="N27" t="s">
-        <v>59</v>
+        <v>68</v>
       </c>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.25">
@@ -13634,7 +13638,7 @@
         <v>15SportsEpisodeSports</v>
       </c>
       <c r="N28" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="O28" s="1" t="s">
         <v>58</v>
@@ -13682,7 +13686,7 @@
         <v>15SportsSeriesSports</v>
       </c>
       <c r="N29" t="s">
-        <v>59</v>
+        <v>68</v>
       </c>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.25">
@@ -13727,7 +13731,7 @@
         <v>15SportsSpecialSports</v>
       </c>
       <c r="N30" t="s">
-        <v>59</v>
+        <v>68</v>
       </c>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.25">
@@ -13772,7 +13776,7 @@
         <v>15SportsSportsSports</v>
       </c>
       <c r="N31" t="s">
-        <v>59</v>
+        <v>68</v>
       </c>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.25">
@@ -13817,7 +13821,7 @@
         <v>15SportsWrestlingSports</v>
       </c>
       <c r="N32" t="s">
-        <v>59</v>
+        <v>68</v>
       </c>
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.25">
@@ -13862,7 +13866,7 @@
         <v>16Original MoviesDocumentaryOriginal Movies</v>
       </c>
       <c r="N33" t="s">
-        <v>59</v>
+        <v>68</v>
       </c>
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.25">
@@ -13907,7 +13911,7 @@
         <v>16Original MoviesMoviesOriginal Movies</v>
       </c>
       <c r="N34" t="s">
-        <v>59</v>
+        <v>68</v>
       </c>
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.25">
@@ -13952,7 +13956,7 @@
         <v>16Original MoviesOriginalOriginal Movies</v>
       </c>
       <c r="N35" t="s">
-        <v>59</v>
+        <v>68</v>
       </c>
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.25">
@@ -13997,7 +14001,7 @@
         <v>16Original MoviesOriginal MiniSeriesOriginal Movies</v>
       </c>
       <c r="N36" t="s">
-        <v>59</v>
+        <v>68</v>
       </c>
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.25">
@@ -14042,7 +14046,7 @@
         <v>16Original MoviesOriginal SeriesOriginal Movies</v>
       </c>
       <c r="N37" t="s">
-        <v>59</v>
+        <v>68</v>
       </c>
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.25">
@@ -14087,7 +14091,7 @@
         <v>16Original MoviesPilotOriginal Movies</v>
       </c>
       <c r="N38" t="s">
-        <v>59</v>
+        <v>68</v>
       </c>
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.25">
@@ -14132,7 +14136,7 @@
         <v>16Original MoviesSeriesOriginal Movies</v>
       </c>
       <c r="N39" t="s">
-        <v>59</v>
+        <v>68</v>
       </c>
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.25">
@@ -14177,7 +14181,7 @@
         <v>17Original MiniSeriesOriginal MiniSeriesOriginal MiniSeries</v>
       </c>
       <c r="N40" t="s">
-        <v>59</v>
+        <v>68</v>
       </c>
     </row>
     <row r="41" spans="1:15" x14ac:dyDescent="0.25">
@@ -14221,9 +14225,8 @@
         <f t="shared" si="0"/>
         <v>32Original SeriesBio/Clip (E)Original Series</v>
       </c>
-      <c r="N41" t="str">
-        <f>VLOOKUP(M41,Results!F:F,1,FALSE)</f>
-        <v>32Original SeriesBio/Clip (E)Original Series</v>
+      <c r="N41" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="42" spans="1:15" x14ac:dyDescent="0.25">
@@ -14268,7 +14271,7 @@
         <v>32Original SeriesConcertOriginal Series</v>
       </c>
       <c r="N42" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="O42" t="s">
         <v>60</v>
@@ -14315,9 +14318,8 @@
         <f t="shared" si="0"/>
         <v>32Original SeriesDocumentaryOriginal Series</v>
       </c>
-      <c r="N43" t="str">
-        <f>VLOOKUP(M43,Results!F:F,1,FALSE)</f>
-        <v>32Original SeriesDocumentaryOriginal Series</v>
+      <c r="N43" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="44" spans="1:15" x14ac:dyDescent="0.25">
@@ -14362,7 +14364,7 @@
         <v>32Original SeriesEpisodeOriginal Series</v>
       </c>
       <c r="N44" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="O44" s="1" t="s">
         <v>58</v>
@@ -14410,7 +14412,7 @@
         <v>32Original SeriesEventsOriginal Series</v>
       </c>
       <c r="N45" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="O45" t="s">
         <v>60</v>
@@ -14458,7 +14460,7 @@
         <v>32Original SeriesMoviesOriginal Series</v>
       </c>
       <c r="N46" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="O46" t="s">
         <v>60</v>
@@ -14506,7 +14508,7 @@
         <v>32Original SeriesOriginalOriginal Series</v>
       </c>
       <c r="N47" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="O47" t="s">
         <v>60</v>
@@ -14553,9 +14555,8 @@
         <f t="shared" si="0"/>
         <v>32Original SeriesOriginal SeriesOriginal Series</v>
       </c>
-      <c r="N48" t="str">
-        <f>VLOOKUP(M48,Results!F:F,1,FALSE)</f>
-        <v>32Original SeriesOriginal SeriesOriginal Series</v>
+      <c r="N48" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="49" spans="1:15" x14ac:dyDescent="0.25">
@@ -14599,9 +14600,8 @@
         <f t="shared" si="0"/>
         <v>32Original SeriesPilotOriginal Series</v>
       </c>
-      <c r="N49" t="str">
-        <f>VLOOKUP(M49,Results!F:F,1,FALSE)</f>
-        <v>32Original SeriesPilotOriginal Series</v>
+      <c r="N49" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="50" spans="1:15" x14ac:dyDescent="0.25">
@@ -14645,9 +14645,8 @@
         <f t="shared" si="0"/>
         <v>32Original SeriesSeriesOriginal Series</v>
       </c>
-      <c r="N50" t="str">
-        <f>VLOOKUP(M50,Results!F:F,1,FALSE)</f>
-        <v>32Original SeriesSeriesOriginal Series</v>
+      <c r="N50" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="51" spans="1:15" x14ac:dyDescent="0.25">
@@ -14691,9 +14690,8 @@
         <f t="shared" si="0"/>
         <v>32Original SeriesSpecialOriginal Series</v>
       </c>
-      <c r="N51" t="str">
-        <f>VLOOKUP(M51,Results!F:F,1,FALSE)</f>
-        <v>32Original SeriesSpecialOriginal Series</v>
+      <c r="N51" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="52" spans="1:15" x14ac:dyDescent="0.25">
@@ -14737,9 +14735,8 @@
         <f t="shared" si="0"/>
         <v>32Original SeriesSportsOriginal Series</v>
       </c>
-      <c r="N52" t="str">
-        <f>VLOOKUP(M52,Results!F:F,1,FALSE)</f>
-        <v>32Original SeriesSportsOriginal Series</v>
+      <c r="N52" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="53" spans="1:15" x14ac:dyDescent="0.25">
@@ -14783,9 +14780,8 @@
         <f t="shared" si="0"/>
         <v>32Original SeriesTopicalsOriginal Series</v>
       </c>
-      <c r="N53" t="str">
-        <f>VLOOKUP(M53,Results!F:F,1,FALSE)</f>
-        <v>32Original SeriesTopicalsOriginal Series</v>
+      <c r="N53" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="54" spans="1:15" x14ac:dyDescent="0.25">
@@ -14830,7 +14826,7 @@
         <v>40Original Series (Season 2-3)Bio/Clip (E)Original Series</v>
       </c>
       <c r="N54" t="s">
-        <v>59</v>
+        <v>68</v>
       </c>
     </row>
     <row r="55" spans="1:15" x14ac:dyDescent="0.25">
@@ -14875,7 +14871,7 @@
         <v>40Original Series (Season 2-3)ConcertOriginal Series</v>
       </c>
       <c r="N55" t="s">
-        <v>59</v>
+        <v>68</v>
       </c>
     </row>
     <row r="56" spans="1:15" x14ac:dyDescent="0.25">
@@ -14920,7 +14916,7 @@
         <v>40Original Series (Season 2-3)DocumentaryOriginal Series</v>
       </c>
       <c r="N56" t="s">
-        <v>59</v>
+        <v>68</v>
       </c>
     </row>
     <row r="57" spans="1:15" x14ac:dyDescent="0.25">
@@ -14965,7 +14961,7 @@
         <v>40Original Series (Season 2-3)EpisodeOriginal Series</v>
       </c>
       <c r="N57" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="O57" s="1" t="s">
         <v>58</v>
@@ -15013,7 +15009,7 @@
         <v>40Original Series (Season 2-3)EventsOriginal Series</v>
       </c>
       <c r="N58" t="s">
-        <v>59</v>
+        <v>68</v>
       </c>
     </row>
     <row r="59" spans="1:15" x14ac:dyDescent="0.25">
@@ -15058,7 +15054,7 @@
         <v>40Original Series (Season 2-3)MoviesOriginal Series</v>
       </c>
       <c r="N59" t="s">
-        <v>59</v>
+        <v>68</v>
       </c>
     </row>
     <row r="60" spans="1:15" x14ac:dyDescent="0.25">
@@ -15103,7 +15099,7 @@
         <v>40Original Series (Season 2-3)OriginalOriginal Series</v>
       </c>
       <c r="N60" t="s">
-        <v>59</v>
+        <v>68</v>
       </c>
     </row>
     <row r="61" spans="1:15" x14ac:dyDescent="0.25">
@@ -15148,7 +15144,7 @@
         <v>40Original Series (Season 2-3)Original SeriesOriginal Series</v>
       </c>
       <c r="N61" t="s">
-        <v>59</v>
+        <v>68</v>
       </c>
     </row>
     <row r="62" spans="1:15" x14ac:dyDescent="0.25">
@@ -15193,7 +15189,7 @@
         <v>40Original Series (Season 2-3)PilotOriginal Series</v>
       </c>
       <c r="N62" t="s">
-        <v>59</v>
+        <v>68</v>
       </c>
     </row>
     <row r="63" spans="1:15" x14ac:dyDescent="0.25">
@@ -15238,7 +15234,7 @@
         <v>40Original Series (Season 2-3)SeriesOriginal Series</v>
       </c>
       <c r="N63" t="s">
-        <v>59</v>
+        <v>68</v>
       </c>
     </row>
     <row r="64" spans="1:15" x14ac:dyDescent="0.25">
@@ -15283,7 +15279,7 @@
         <v>40Original Series (Season 2-3)SpecialOriginal Series</v>
       </c>
       <c r="N64" t="s">
-        <v>59</v>
+        <v>68</v>
       </c>
     </row>
     <row r="65" spans="1:15" x14ac:dyDescent="0.25">
@@ -15328,7 +15324,7 @@
         <v>40Original Series (Season 2-3)SportsOriginal Series</v>
       </c>
       <c r="N65" t="s">
-        <v>59</v>
+        <v>68</v>
       </c>
     </row>
     <row r="66" spans="1:15" x14ac:dyDescent="0.25">
@@ -15373,7 +15369,7 @@
         <v>40Original Series (Season 2-3)TopicalsOriginal Series</v>
       </c>
       <c r="N66" t="s">
-        <v>59</v>
+        <v>68</v>
       </c>
     </row>
     <row r="67" spans="1:15" x14ac:dyDescent="0.25">
@@ -15418,7 +15414,7 @@
         <v>41Original Series (Season 4)Bio/Clip (E)Original Series</v>
       </c>
       <c r="N67" t="s">
-        <v>59</v>
+        <v>68</v>
       </c>
     </row>
     <row r="68" spans="1:15" x14ac:dyDescent="0.25">
@@ -15463,7 +15459,7 @@
         <v>41Original Series (Season 4)ConcertOriginal Series</v>
       </c>
       <c r="N68" t="s">
-        <v>59</v>
+        <v>68</v>
       </c>
     </row>
     <row r="69" spans="1:15" x14ac:dyDescent="0.25">
@@ -15508,7 +15504,7 @@
         <v>41Original Series (Season 4)DocumentaryOriginal Series</v>
       </c>
       <c r="N69" t="s">
-        <v>59</v>
+        <v>68</v>
       </c>
     </row>
     <row r="70" spans="1:15" x14ac:dyDescent="0.25">
@@ -15553,7 +15549,7 @@
         <v>41Original Series (Season 4)EpisodeOriginal Series</v>
       </c>
       <c r="N70" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="O70" s="1" t="s">
         <v>58</v>
@@ -15601,7 +15597,7 @@
         <v>41Original Series (Season 4)EventsOriginal Series</v>
       </c>
       <c r="N71" t="s">
-        <v>59</v>
+        <v>68</v>
       </c>
     </row>
     <row r="72" spans="1:15" x14ac:dyDescent="0.25">
@@ -15646,7 +15642,7 @@
         <v>41Original Series (Season 4)MoviesOriginal Series</v>
       </c>
       <c r="N72" t="s">
-        <v>59</v>
+        <v>68</v>
       </c>
     </row>
     <row r="73" spans="1:15" x14ac:dyDescent="0.25">
@@ -15691,7 +15687,7 @@
         <v>41Original Series (Season 4)OriginalOriginal Series</v>
       </c>
       <c r="N73" t="s">
-        <v>59</v>
+        <v>68</v>
       </c>
     </row>
     <row r="74" spans="1:15" x14ac:dyDescent="0.25">
@@ -15736,7 +15732,7 @@
         <v>41Original Series (Season 4)Original SeriesOriginal Series</v>
       </c>
       <c r="N74" t="s">
-        <v>59</v>
+        <v>68</v>
       </c>
     </row>
     <row r="75" spans="1:15" x14ac:dyDescent="0.25">
@@ -15781,7 +15777,7 @@
         <v>41Original Series (Season 4)PilotOriginal Series</v>
       </c>
       <c r="N75" t="s">
-        <v>59</v>
+        <v>68</v>
       </c>
     </row>
     <row r="76" spans="1:15" x14ac:dyDescent="0.25">
@@ -15826,7 +15822,7 @@
         <v>41Original Series (Season 4)SeriesOriginal Series</v>
       </c>
       <c r="N76" t="s">
-        <v>59</v>
+        <v>68</v>
       </c>
     </row>
     <row r="77" spans="1:15" x14ac:dyDescent="0.25">
@@ -15871,7 +15867,7 @@
         <v>41Original Series (Season 4)SpecialOriginal Series</v>
       </c>
       <c r="N77" t="s">
-        <v>59</v>
+        <v>68</v>
       </c>
     </row>
     <row r="78" spans="1:15" x14ac:dyDescent="0.25">
@@ -15916,7 +15912,7 @@
         <v>41Original Series (Season 4)SportsOriginal Series</v>
       </c>
       <c r="N78" t="s">
-        <v>59</v>
+        <v>68</v>
       </c>
     </row>
     <row r="79" spans="1:15" x14ac:dyDescent="0.25">
@@ -15961,7 +15957,7 @@
         <v>41Original Series (Season 4)TopicalsOriginal Series</v>
       </c>
       <c r="N79" t="s">
-        <v>59</v>
+        <v>68</v>
       </c>
     </row>
     <row r="80" spans="1:15" x14ac:dyDescent="0.25">
@@ -16006,7 +16002,7 @@
         <v>50Original Movies (Anonymous Rex)DocumentaryOriginal Movies</v>
       </c>
       <c r="N80" t="s">
-        <v>59</v>
+        <v>68</v>
       </c>
     </row>
     <row r="81" spans="1:15" x14ac:dyDescent="0.25">
@@ -16051,7 +16047,7 @@
         <v>50Original Movies (Anonymous Rex)MoviesOriginal Movies</v>
       </c>
       <c r="N81" t="s">
-        <v>59</v>
+        <v>68</v>
       </c>
     </row>
     <row r="82" spans="1:15" x14ac:dyDescent="0.25">
@@ -16096,7 +16092,7 @@
         <v>50Original Movies (Anonymous Rex)OriginalOriginal Movies</v>
       </c>
       <c r="N82" t="s">
-        <v>59</v>
+        <v>68</v>
       </c>
     </row>
     <row r="83" spans="1:15" x14ac:dyDescent="0.25">
@@ -16141,7 +16137,7 @@
         <v>50Original Movies (Anonymous Rex)Original MiniSeriesOriginal Movies</v>
       </c>
       <c r="N83" t="s">
-        <v>59</v>
+        <v>68</v>
       </c>
     </row>
     <row r="84" spans="1:15" x14ac:dyDescent="0.25">
@@ -16186,7 +16182,7 @@
         <v>50Original Movies (Anonymous Rex)Original SeriesOriginal Movies</v>
       </c>
       <c r="N84" t="s">
-        <v>59</v>
+        <v>68</v>
       </c>
     </row>
     <row r="85" spans="1:15" x14ac:dyDescent="0.25">
@@ -16231,7 +16227,7 @@
         <v>50Original Movies (Anonymous Rex)PilotOriginal Movies</v>
       </c>
       <c r="N85" t="s">
-        <v>59</v>
+        <v>68</v>
       </c>
     </row>
     <row r="86" spans="1:15" x14ac:dyDescent="0.25">
@@ -16276,7 +16272,7 @@
         <v>50Original Movies (Anonymous Rex)SeriesOriginal Movies</v>
       </c>
       <c r="N86" t="s">
-        <v>59</v>
+        <v>68</v>
       </c>
     </row>
     <row r="87" spans="1:15" x14ac:dyDescent="0.25">
@@ -16321,7 +16317,7 @@
         <v>53WrestlingWrestlingWrestling</v>
       </c>
       <c r="N87" t="s">
-        <v>59</v>
+        <v>68</v>
       </c>
     </row>
     <row r="88" spans="1:15" x14ac:dyDescent="0.25">
@@ -16366,7 +16362,7 @@
         <v>54Acquired OriginalsMoviesAcquired Originals</v>
       </c>
       <c r="N88" t="s">
-        <v>59</v>
+        <v>68</v>
       </c>
     </row>
     <row r="89" spans="1:15" x14ac:dyDescent="0.25">
@@ -16411,7 +16407,7 @@
         <v>54Acquired OriginalsOriginalAcquired Originals</v>
       </c>
       <c r="N89" t="s">
-        <v>59</v>
+        <v>68</v>
       </c>
     </row>
     <row r="90" spans="1:15" x14ac:dyDescent="0.25">
@@ -16456,7 +16452,7 @@
         <v>54Acquired OriginalsOriginal MiniSeriesAcquired Originals</v>
       </c>
       <c r="N90" t="s">
-        <v>59</v>
+        <v>68</v>
       </c>
     </row>
     <row r="91" spans="1:15" x14ac:dyDescent="0.25">
@@ -16501,7 +16497,7 @@
         <v>54Acquired OriginalsSeriesAcquired Originals</v>
       </c>
       <c r="N91" t="s">
-        <v>59</v>
+        <v>68</v>
       </c>
     </row>
     <row r="92" spans="1:15" x14ac:dyDescent="0.25">
@@ -16546,7 +16542,7 @@
         <v>73Syndicated Series - (SCI FI)Bio/Clip (E)Original Series</v>
       </c>
       <c r="N92" t="s">
-        <v>59</v>
+        <v>68</v>
       </c>
     </row>
     <row r="93" spans="1:15" x14ac:dyDescent="0.25">
@@ -16591,7 +16587,7 @@
         <v>73Syndicated Series - (SCI FI)ConcertOriginal Series</v>
       </c>
       <c r="N93" t="s">
-        <v>59</v>
+        <v>68</v>
       </c>
     </row>
     <row r="94" spans="1:15" x14ac:dyDescent="0.25">
@@ -16636,7 +16632,7 @@
         <v>73Syndicated Series - (SCI FI)DocumentaryOriginal Series</v>
       </c>
       <c r="N94" t="s">
-        <v>59</v>
+        <v>68</v>
       </c>
     </row>
     <row r="95" spans="1:15" x14ac:dyDescent="0.25">
@@ -16681,7 +16677,7 @@
         <v>73Syndicated Series - (SCI FI)EpisodeOriginal Series</v>
       </c>
       <c r="N95" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="O95" s="1" t="s">
         <v>58</v>
@@ -16729,7 +16725,7 @@
         <v>73Syndicated Series - (SCI FI)EventsOriginal Series</v>
       </c>
       <c r="N96" t="s">
-        <v>59</v>
+        <v>68</v>
       </c>
     </row>
     <row r="97" spans="1:15" x14ac:dyDescent="0.25">
@@ -16774,7 +16770,7 @@
         <v>73Syndicated Series - (SCI FI)MoviesOriginal Series</v>
       </c>
       <c r="N97" t="s">
-        <v>59</v>
+        <v>68</v>
       </c>
     </row>
     <row r="98" spans="1:15" x14ac:dyDescent="0.25">
@@ -16819,7 +16815,7 @@
         <v>73Syndicated Series - (SCI FI)OriginalOriginal Series</v>
       </c>
       <c r="N98" t="s">
-        <v>59</v>
+        <v>68</v>
       </c>
     </row>
     <row r="99" spans="1:15" x14ac:dyDescent="0.25">
@@ -16864,7 +16860,7 @@
         <v>73Syndicated Series - (SCI FI)Original SeriesOriginal Series</v>
       </c>
       <c r="N99" t="s">
-        <v>59</v>
+        <v>68</v>
       </c>
     </row>
     <row r="100" spans="1:15" x14ac:dyDescent="0.25">
@@ -16909,7 +16905,7 @@
         <v>73Syndicated Series - (SCI FI)PilotOriginal Series</v>
       </c>
       <c r="N100" t="s">
-        <v>59</v>
+        <v>68</v>
       </c>
     </row>
     <row r="101" spans="1:15" x14ac:dyDescent="0.25">
@@ -16954,7 +16950,7 @@
         <v>73Syndicated Series - (SCI FI)SeriesOriginal Series</v>
       </c>
       <c r="N101" t="s">
-        <v>59</v>
+        <v>68</v>
       </c>
     </row>
     <row r="102" spans="1:15" x14ac:dyDescent="0.25">
@@ -16999,7 +16995,7 @@
         <v>73Syndicated Series - (SCI FI)SpecialOriginal Series</v>
       </c>
       <c r="N102" t="s">
-        <v>59</v>
+        <v>68</v>
       </c>
     </row>
     <row r="103" spans="1:15" x14ac:dyDescent="0.25">
@@ -17044,7 +17040,7 @@
         <v>73Syndicated Series - (SCI FI)SportsOriginal Series</v>
       </c>
       <c r="N103" t="s">
-        <v>59</v>
+        <v>68</v>
       </c>
     </row>
     <row r="104" spans="1:15" x14ac:dyDescent="0.25">
@@ -17089,7 +17085,7 @@
         <v>73Syndicated Series - (SCI FI)TopicalsOriginal Series</v>
       </c>
       <c r="N104" t="s">
-        <v>59</v>
+        <v>68</v>
       </c>
     </row>
     <row r="105" spans="1:15" x14ac:dyDescent="0.25">
@@ -17134,7 +17130,7 @@
         <v>80Pilot 80-20DocumentaryOriginal Movies</v>
       </c>
       <c r="N105" t="s">
-        <v>59</v>
+        <v>68</v>
       </c>
     </row>
     <row r="106" spans="1:15" x14ac:dyDescent="0.25">
@@ -17179,7 +17175,7 @@
         <v>80Pilot 80-20MoviesOriginal Movies</v>
       </c>
       <c r="N106" t="s">
-        <v>59</v>
+        <v>68</v>
       </c>
     </row>
     <row r="107" spans="1:15" x14ac:dyDescent="0.25">
@@ -17224,7 +17220,7 @@
         <v>80Pilot 80-20OriginalOriginal Movies</v>
       </c>
       <c r="N107" t="s">
-        <v>59</v>
+        <v>68</v>
       </c>
     </row>
     <row r="108" spans="1:15" x14ac:dyDescent="0.25">
@@ -17269,7 +17265,7 @@
         <v>80Pilot 80-20Original MiniSeriesOriginal Movies</v>
       </c>
       <c r="N108" t="s">
-        <v>59</v>
+        <v>68</v>
       </c>
     </row>
     <row r="109" spans="1:15" x14ac:dyDescent="0.25">
@@ -17314,7 +17310,7 @@
         <v>80Pilot 80-20Original SeriesOriginal Movies</v>
       </c>
       <c r="N109" t="s">
-        <v>59</v>
+        <v>68</v>
       </c>
     </row>
     <row r="110" spans="1:15" x14ac:dyDescent="0.25">
@@ -17359,7 +17355,7 @@
         <v>80Pilot 80-20PilotOriginal Movies</v>
       </c>
       <c r="N110" t="s">
-        <v>59</v>
+        <v>68</v>
       </c>
     </row>
     <row r="111" spans="1:15" x14ac:dyDescent="0.25">
@@ -17404,7 +17400,7 @@
         <v>80Pilot 80-20SeriesOriginal Movies</v>
       </c>
       <c r="N111" t="s">
-        <v>59</v>
+        <v>68</v>
       </c>
     </row>
     <row r="112" spans="1:15" x14ac:dyDescent="0.25">
@@ -17449,7 +17445,7 @@
         <v>82Acquired Link SeriesAcquired SpecialsAcquired Series</v>
       </c>
       <c r="N112" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="O112" t="s">
         <v>62</v>
@@ -17497,7 +17493,7 @@
         <v>82Acquired Link SeriesBio/Clip (E)Acquired Series</v>
       </c>
       <c r="N113" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="O113" t="s">
         <v>62</v>
@@ -17545,7 +17541,7 @@
         <v>82Acquired Link SeriesConcertAcquired Series</v>
       </c>
       <c r="N114" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="O114" t="s">
         <v>62</v>
@@ -17593,7 +17589,7 @@
         <v>82Acquired Link SeriesDocumentaryAcquired Series</v>
       </c>
       <c r="N115" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="O115" t="s">
         <v>62</v>
@@ -17641,7 +17637,7 @@
         <v>82Acquired Link SeriesEpisodeAcquired Series</v>
       </c>
       <c r="N116" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="O116" s="1" t="s">
         <v>58</v>
@@ -17689,7 +17685,7 @@
         <v>82Acquired Link SeriesEventsAcquired Series</v>
       </c>
       <c r="N117" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="O117" t="s">
         <v>62</v>
@@ -17737,7 +17733,7 @@
         <v>82Acquired Link SeriesMoviesAcquired Series</v>
       </c>
       <c r="N118" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="O118" t="s">
         <v>62</v>
@@ -17785,7 +17781,7 @@
         <v>82Acquired Link SeriesOriginal SeriesAcquired Series</v>
       </c>
       <c r="N119" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="O119" t="s">
         <v>62</v>
@@ -17833,7 +17829,7 @@
         <v>82Acquired Link SeriesSeriesAcquired Series</v>
       </c>
       <c r="N120" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="O120" t="s">
         <v>62</v>
@@ -17881,7 +17877,7 @@
         <v>82Acquired Link SeriesSpecialAcquired Series</v>
       </c>
       <c r="N121" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="O121" t="s">
         <v>62</v>
@@ -17929,7 +17925,7 @@
         <v>82Acquired Link SeriesSportsAcquired Series</v>
       </c>
       <c r="N122" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="O122" t="s">
         <v>62</v>
@@ -17977,7 +17973,7 @@
         <v>168Acquired Series 40-10Acquired SpecialsAcquired Series</v>
       </c>
       <c r="N123" t="s">
-        <v>59</v>
+        <v>68</v>
       </c>
     </row>
     <row r="124" spans="1:15" x14ac:dyDescent="0.25">
@@ -18022,7 +18018,7 @@
         <v>168Acquired Series 40-10Bio/Clip (E)Acquired Series</v>
       </c>
       <c r="N124" t="s">
-        <v>59</v>
+        <v>68</v>
       </c>
     </row>
     <row r="125" spans="1:15" x14ac:dyDescent="0.25">
@@ -18067,7 +18063,7 @@
         <v>168Acquired Series 40-10ConcertAcquired Series</v>
       </c>
       <c r="N125" t="s">
-        <v>59</v>
+        <v>68</v>
       </c>
     </row>
     <row r="126" spans="1:15" x14ac:dyDescent="0.25">
@@ -18112,7 +18108,7 @@
         <v>168Acquired Series 40-10DocumentaryAcquired Series</v>
       </c>
       <c r="N126" t="s">
-        <v>59</v>
+        <v>68</v>
       </c>
     </row>
     <row r="127" spans="1:15" x14ac:dyDescent="0.25">
@@ -18157,7 +18153,7 @@
         <v>168Acquired Series 40-10EpisodeAcquired Series</v>
       </c>
       <c r="N127" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="O127" s="1" t="s">
         <v>58</v>
@@ -18205,7 +18201,7 @@
         <v>168Acquired Series 40-10EventsAcquired Series</v>
       </c>
       <c r="N128" t="s">
-        <v>59</v>
+        <v>68</v>
       </c>
     </row>
     <row r="129" spans="1:15" x14ac:dyDescent="0.25">
@@ -18250,7 +18246,7 @@
         <v>168Acquired Series 40-10MoviesAcquired Series</v>
       </c>
       <c r="N129" t="s">
-        <v>59</v>
+        <v>68</v>
       </c>
     </row>
     <row r="130" spans="1:15" x14ac:dyDescent="0.25">
@@ -18295,7 +18291,7 @@
         <v>168Acquired Series 40-10Original SeriesAcquired Series</v>
       </c>
       <c r="N130" t="s">
-        <v>59</v>
+        <v>68</v>
       </c>
     </row>
     <row r="131" spans="1:15" x14ac:dyDescent="0.25">
@@ -18340,7 +18336,7 @@
         <v>168Acquired Series 40-10SeriesAcquired Series</v>
       </c>
       <c r="N131" t="s">
-        <v>59</v>
+        <v>68</v>
       </c>
     </row>
     <row r="132" spans="1:15" x14ac:dyDescent="0.25">
@@ -18385,7 +18381,7 @@
         <v>168Acquired Series 40-10SpecialAcquired Series</v>
       </c>
       <c r="N132" t="s">
-        <v>59</v>
+        <v>68</v>
       </c>
     </row>
     <row r="133" spans="1:15" x14ac:dyDescent="0.25">
@@ -18430,7 +18426,7 @@
         <v>168Acquired Series 40-10SportsAcquired Series</v>
       </c>
       <c r="N133" t="s">
-        <v>59</v>
+        <v>68</v>
       </c>
     </row>
     <row r="134" spans="1:15" x14ac:dyDescent="0.25">
@@ -18475,7 +18471,7 @@
         <v>176BlankConcertBlank</v>
       </c>
       <c r="N134" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="O134" s="1" t="s">
         <v>57</v>
@@ -18523,7 +18519,7 @@
         <v>176BlankDocumentaryBlank</v>
       </c>
       <c r="N135" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="O135" s="1" t="s">
         <v>57</v>
@@ -18571,7 +18567,7 @@
         <v>176BlankEventsBlank</v>
       </c>
       <c r="N136" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="O136" s="1" t="s">
         <v>57</v>
@@ -18619,7 +18615,7 @@
         <v>176BlankTopicalsBlank</v>
       </c>
       <c r="N137" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="O137" s="1" t="s">
         <v>57</v>
@@ -18667,7 +18663,7 @@
         <v>188Acquired Original SeriesAcquired SpecialsAcquired Series</v>
       </c>
       <c r="N138" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="O138" t="s">
         <v>63</v>
@@ -18715,7 +18711,7 @@
         <v>188Acquired Original SeriesBio/Clip (E)Acquired Series</v>
       </c>
       <c r="N139" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="O139" t="s">
         <v>63</v>
@@ -18763,7 +18759,7 @@
         <v>188Acquired Original SeriesConcertAcquired Series</v>
       </c>
       <c r="N140" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="O140" t="s">
         <v>63</v>
@@ -18811,7 +18807,7 @@
         <v>188Acquired Original SeriesDocumentaryAcquired Series</v>
       </c>
       <c r="N141" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="O141" t="s">
         <v>63</v>
@@ -18859,7 +18855,7 @@
         <v>188Acquired Original SeriesEpisodeAcquired Series</v>
       </c>
       <c r="N142" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="O142" s="1" t="s">
         <v>58</v>
@@ -18907,7 +18903,7 @@
         <v>188Acquired Original SeriesEventsAcquired Series</v>
       </c>
       <c r="N143" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="O143" t="s">
         <v>63</v>
@@ -18955,7 +18951,7 @@
         <v>188Acquired Original SeriesMoviesAcquired Series</v>
       </c>
       <c r="N144" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="O144" t="s">
         <v>63</v>
@@ -19003,7 +18999,7 @@
         <v>188Acquired Original SeriesOriginal SeriesAcquired Series</v>
       </c>
       <c r="N145" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="O145" t="s">
         <v>63</v>
@@ -19051,7 +19047,7 @@
         <v>188Acquired Original SeriesSeriesAcquired Series</v>
       </c>
       <c r="N146" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="O146" t="s">
         <v>63</v>
@@ -19099,7 +19095,7 @@
         <v>188Acquired Original SeriesSpecialAcquired Series</v>
       </c>
       <c r="N147" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="O147" t="s">
         <v>63</v>
@@ -19147,7 +19143,7 @@
         <v>188Acquired Original SeriesSportsAcquired Series</v>
       </c>
       <c r="N148" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="O148" t="s">
         <v>63</v>
@@ -19195,7 +19191,7 @@
         <v>227Pilot straight-lineDocumentaryOriginal Movies</v>
       </c>
       <c r="N149" t="s">
-        <v>59</v>
+        <v>68</v>
       </c>
     </row>
     <row r="150" spans="1:15" x14ac:dyDescent="0.25">
@@ -19240,7 +19236,7 @@
         <v>227Pilot straight-lineMoviesOriginal Movies</v>
       </c>
       <c r="N150" t="s">
-        <v>59</v>
+        <v>68</v>
       </c>
     </row>
     <row r="151" spans="1:15" x14ac:dyDescent="0.25">
@@ -19285,7 +19281,7 @@
         <v>227Pilot straight-lineOriginalOriginal Movies</v>
       </c>
       <c r="N151" t="s">
-        <v>59</v>
+        <v>68</v>
       </c>
     </row>
     <row r="152" spans="1:15" x14ac:dyDescent="0.25">
@@ -19330,7 +19326,7 @@
         <v>227Pilot straight-lineOriginal MiniSeriesOriginal Movies</v>
       </c>
       <c r="N152" t="s">
-        <v>59</v>
+        <v>68</v>
       </c>
     </row>
     <row r="153" spans="1:15" x14ac:dyDescent="0.25">
@@ -19375,7 +19371,7 @@
         <v>227Pilot straight-lineOriginal SeriesOriginal Movies</v>
       </c>
       <c r="N153" t="s">
-        <v>59</v>
+        <v>68</v>
       </c>
     </row>
     <row r="154" spans="1:15" x14ac:dyDescent="0.25">
@@ -19420,7 +19416,7 @@
         <v>227Pilot straight-linePilotOriginal Movies</v>
       </c>
       <c r="N154" t="s">
-        <v>59</v>
+        <v>68</v>
       </c>
     </row>
     <row r="155" spans="1:15" x14ac:dyDescent="0.25">
@@ -19465,7 +19461,7 @@
         <v>227Pilot straight-lineSeriesOriginal Movies</v>
       </c>
       <c r="N155" t="s">
-        <v>59</v>
+        <v>68</v>
       </c>
     </row>
     <row r="156" spans="1:15" x14ac:dyDescent="0.25">
@@ -19509,9 +19505,8 @@
         <f t="shared" si="2"/>
         <v>330Original SeriesBio/Clip (E)Acquired Original Series</v>
       </c>
-      <c r="N156" t="str">
-        <f>VLOOKUP(M156,Results!F:F,1,FALSE)</f>
-        <v>330Original SeriesBio/Clip (E)Acquired Original Series</v>
+      <c r="N156" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="157" spans="1:15" x14ac:dyDescent="0.25">
@@ -19556,7 +19551,7 @@
         <v>330Original SeriesConcertAcquired Original Series</v>
       </c>
       <c r="N157" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="O157" t="s">
         <v>60</v>
@@ -19603,9 +19598,8 @@
         <f t="shared" si="2"/>
         <v>330Original SeriesDocumentaryAcquired Original Series</v>
       </c>
-      <c r="N158" t="str">
-        <f>VLOOKUP(M158,Results!F:F,1,FALSE)</f>
-        <v>330Original SeriesDocumentaryAcquired Original Series</v>
+      <c r="N158" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="159" spans="1:15" x14ac:dyDescent="0.25">
@@ -19650,7 +19644,7 @@
         <v>330Original SeriesEpisodeAcquired Original Series</v>
       </c>
       <c r="N159" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="O159" s="1" t="s">
         <v>58</v>
@@ -19698,7 +19692,7 @@
         <v>330Original SeriesEventsAcquired Original Series</v>
       </c>
       <c r="N160" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="O160" t="s">
         <v>60</v>
@@ -19746,7 +19740,7 @@
         <v>330Original SeriesMoviesAcquired Original Series</v>
       </c>
       <c r="N161" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="O161" t="s">
         <v>60</v>
@@ -19794,7 +19788,7 @@
         <v>330Original SeriesOriginalAcquired Original Series</v>
       </c>
       <c r="N162" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="O162" t="s">
         <v>60</v>
@@ -19841,9 +19835,8 @@
         <f t="shared" si="2"/>
         <v>330Original SeriesOriginal SeriesAcquired Original Series</v>
       </c>
-      <c r="N163" t="str">
-        <f>VLOOKUP(M163,Results!F:F,1,FALSE)</f>
-        <v>330Original SeriesOriginal SeriesAcquired Original Series</v>
+      <c r="N163" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="164" spans="1:15" x14ac:dyDescent="0.25">
@@ -19887,9 +19880,8 @@
         <f t="shared" si="2"/>
         <v>330Original SeriesPilotAcquired Original Series</v>
       </c>
-      <c r="N164" t="str">
-        <f>VLOOKUP(M164,Results!F:F,1,FALSE)</f>
-        <v>330Original SeriesPilotAcquired Original Series</v>
+      <c r="N164" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="165" spans="1:15" x14ac:dyDescent="0.25">
@@ -19933,9 +19925,8 @@
         <f t="shared" si="2"/>
         <v>330Original SeriesSeriesAcquired Original Series</v>
       </c>
-      <c r="N165" t="str">
-        <f>VLOOKUP(M165,Results!F:F,1,FALSE)</f>
-        <v>330Original SeriesSeriesAcquired Original Series</v>
+      <c r="N165" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="166" spans="1:15" x14ac:dyDescent="0.25">
@@ -19979,9 +19970,8 @@
         <f t="shared" si="2"/>
         <v>330Original SeriesSpecialAcquired Original Series</v>
       </c>
-      <c r="N166" t="str">
-        <f>VLOOKUP(M166,Results!F:F,1,FALSE)</f>
-        <v>330Original SeriesSpecialAcquired Original Series</v>
+      <c r="N166" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="167" spans="1:15" x14ac:dyDescent="0.25">
@@ -20025,9 +20015,8 @@
         <f t="shared" si="2"/>
         <v>330Original SeriesSportsAcquired Original Series</v>
       </c>
-      <c r="N167" t="str">
-        <f>VLOOKUP(M167,Results!F:F,1,FALSE)</f>
-        <v>330Original SeriesSportsAcquired Original Series</v>
+      <c r="N167" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="168" spans="1:15" x14ac:dyDescent="0.25">
@@ -20071,9 +20060,8 @@
         <f t="shared" si="2"/>
         <v>330Original SeriesTopicalsAcquired Original Series</v>
       </c>
-      <c r="N168" t="str">
-        <f>VLOOKUP(M168,Results!F:F,1,FALSE)</f>
-        <v>330Original SeriesTopicalsAcquired Original Series</v>
+      <c r="N168" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="169" spans="1:15" x14ac:dyDescent="0.25">
@@ -20118,7 +20106,7 @@
         <v>331Acquired Original SeriesOriginal SeriesAcquired Original Series</v>
       </c>
       <c r="N169" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="O169" t="s">
         <v>63</v>
@@ -20166,7 +20154,7 @@
         <v>332Original Series (Season 2-3)Original SeriesAcquired Original Series</v>
       </c>
       <c r="N170" t="s">
-        <v>59</v>
+        <v>68</v>
       </c>
     </row>
     <row r="171" spans="1:15" x14ac:dyDescent="0.25">
@@ -20211,7 +20199,7 @@
         <v>342Original Series 1 yrOriginal SeriesOriginal Series</v>
       </c>
       <c r="N171" t="s">
-        <v>59</v>
+        <v>68</v>
       </c>
     </row>
     <row r="172" spans="1:15" x14ac:dyDescent="0.25">
@@ -20256,7 +20244,7 @@
         <v>343Original Series 1 yrMoviesOriginal Movies</v>
       </c>
       <c r="N172" t="s">
-        <v>59</v>
+        <v>68</v>
       </c>
     </row>
     <row r="173" spans="1:15" x14ac:dyDescent="0.25">
@@ -20301,7 +20289,7 @@
         <v>343Original Series 1 yrOriginalOriginal Movies</v>
       </c>
       <c r="N173" t="s">
-        <v>59</v>
+        <v>68</v>
       </c>
     </row>
     <row r="174" spans="1:15" x14ac:dyDescent="0.25">
@@ -20346,7 +20334,7 @@
         <v>343Original Series 1 yrPilotOriginal Movies</v>
       </c>
       <c r="N174" t="s">
-        <v>59</v>
+        <v>68</v>
       </c>
     </row>
     <row r="175" spans="1:15" x14ac:dyDescent="0.25">
@@ -20391,7 +20379,7 @@
         <v>344Original Series 1 yrOriginal SeriesAcquired Original Series</v>
       </c>
       <c r="N175" t="s">
-        <v>59</v>
+        <v>68</v>
       </c>
     </row>
     <row r="176" spans="1:15" x14ac:dyDescent="0.25">
@@ -20436,7 +20424,7 @@
         <v>345Original Series 1 yrOriginal SeriesAcquired Series</v>
       </c>
       <c r="N176" t="s">
-        <v>59</v>
+        <v>68</v>
       </c>
     </row>
   </sheetData>
